--- a/uploads/sandbox_SN024 Website.xlsx
+++ b/uploads/sandbox_SN024 Website.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE59859-9687-41FA-B31A-5E444B1388A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB89E0B2-1093-43D5-BA7E-6EAEED498181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{D3DD4CF1-8F12-4A29-A7C2-5D4541B77DC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3DD4CF1-8F12-4A29-A7C2-5D4541B77DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>sellerNTNCNIC</t>
   </si>
   <si>
-    <t>3520209382291</t>
-  </si>
-  <si>
     <t>sellerSTRN</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>7542425</t>
   </si>
 </sst>
 </file>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4B115E-5192-4BA5-A300-DDB59255C80B}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,15 +720,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,82 +736,82 @@
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -819,37 +819,37 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -857,113 +857,113 @@
     </row>
     <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="N26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="O26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="P26" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="R26" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
